--- a/Impacts.xlsx
+++ b/Impacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\OneDrive\Desktop\FIT3179\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\OneDrive\Desktop\FIT3179\Assignment 2\Assignment2\Assingment2-2977275\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A9E4B2-7ABD-449F-9508-5FF22C6A0EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FF803-E828-49E0-B1E9-4A6E8F16DE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="34" r:id="rId1"/>
@@ -5783,15 +5783,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5807,39 +5807,39 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5870,6 +5870,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5879,9 +5882,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5921,29 +5921,29 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6597,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7726,14 +7726,14 @@
       <c r="A2" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
     </row>
     <row r="3" spans="1:9" ht="42" customHeight="1">
       <c r="A3" s="206" t="s">
@@ -8076,17 +8076,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="357" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="359"/>
-      <c r="C15" s="359"/>
-      <c r="D15" s="359"/>
-      <c r="E15" s="359"/>
-      <c r="F15" s="359"/>
-      <c r="G15" s="359"/>
-      <c r="H15" s="359"/>
-      <c r="I15" s="359"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="208" t="s">
@@ -8379,111 +8379,118 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="357" t="s">
+      <c r="A26" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="358"/>
-      <c r="C26" s="358"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="358"/>
-      <c r="I26" s="358"/>
+      <c r="B26" s="359"/>
+      <c r="C26" s="359"/>
+      <c r="D26" s="359"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="359"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="359"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="357" t="s">
+      <c r="A27" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="358"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="358"/>
-      <c r="E27" s="358"/>
-      <c r="F27" s="358"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
+      <c r="B27" s="359"/>
+      <c r="C27" s="359"/>
+      <c r="D27" s="359"/>
+      <c r="E27" s="359"/>
+      <c r="F27" s="359"/>
+      <c r="G27" s="359"/>
+      <c r="H27" s="359"/>
+      <c r="I27" s="359"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="357" t="s">
+      <c r="A28" s="358" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="358"/>
-      <c r="C28" s="358"/>
-      <c r="D28" s="358"/>
-      <c r="E28" s="358"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="358"/>
-      <c r="H28" s="358"/>
-      <c r="I28" s="358"/>
+      <c r="B28" s="359"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="359"/>
+      <c r="H28" s="359"/>
+      <c r="I28" s="359"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="357" t="s">
+      <c r="A29" s="358" t="s">
         <v>625</v>
       </c>
-      <c r="B29" s="358"/>
-      <c r="C29" s="358"/>
-      <c r="D29" s="358"/>
-      <c r="E29" s="358"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="358"/>
-      <c r="I29" s="358"/>
+      <c r="B29" s="359"/>
+      <c r="C29" s="359"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="357" t="s">
+      <c r="A30" s="358" t="s">
         <v>527</v>
       </c>
-      <c r="B30" s="358"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="358"/>
-      <c r="H30" s="358"/>
-      <c r="I30" s="358"/>
+      <c r="B30" s="359"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="357" t="s">
+      <c r="A31" s="358" t="s">
         <v>626</v>
       </c>
-      <c r="B31" s="358"/>
-      <c r="C31" s="358"/>
-      <c r="D31" s="358"/>
-      <c r="E31" s="358"/>
-      <c r="F31" s="358"/>
-      <c r="G31" s="358"/>
-      <c r="H31" s="358"/>
-      <c r="I31" s="358"/>
+      <c r="B31" s="359"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="357" t="s">
+      <c r="A32" s="358" t="s">
         <v>528</v>
       </c>
-      <c r="B32" s="358"/>
-      <c r="C32" s="358"/>
-      <c r="D32" s="358"/>
-      <c r="E32" s="358"/>
-      <c r="F32" s="358"/>
-      <c r="G32" s="358"/>
-      <c r="H32" s="358"/>
-      <c r="I32" s="358"/>
+      <c r="B32" s="359"/>
+      <c r="C32" s="359"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="357" t="s">
+      <c r="A33" s="358" t="s">
         <v>539</v>
       </c>
-      <c r="B33" s="358"/>
-      <c r="C33" s="358"/>
-      <c r="D33" s="358"/>
-      <c r="E33" s="358"/>
-      <c r="F33" s="358"/>
-      <c r="G33" s="358"/>
-      <c r="H33" s="358"/>
-      <c r="I33" s="358"/>
+      <c r="B33" s="359"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A1:I1"/>
@@ -8492,13 +8499,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8534,12 +8534,12 @@
       <c r="A2" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="206" t="s">
@@ -8674,144 +8674,139 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="358"/>
+      <c r="B9" s="359"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="358" t="s">
         <v>625</v>
       </c>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="358" t="s">
         <v>532</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="358" t="s">
         <v>533</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="358"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="358" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="358"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="358" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
-      <c r="G14" s="358"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="358" t="s">
         <v>536</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="359"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="358" t="s">
         <v>537</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
+      <c r="B16" s="359"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="357" t="s">
+      <c r="A17" s="358" t="s">
         <v>527</v>
       </c>
-      <c r="B17" s="358"/>
-      <c r="C17" s="358"/>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="359"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="359"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="358" t="s">
         <v>626</v>
       </c>
-      <c r="B18" s="358"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="358"/>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
+      <c r="B18" s="359"/>
+      <c r="C18" s="359"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="357" t="s">
+      <c r="A19" s="358" t="s">
         <v>538</v>
       </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
+      <c r="B19" s="359"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="359"/>
+      <c r="E19" s="359"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="359"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="357" t="s">
+      <c r="A20" s="358" t="s">
         <v>627</v>
       </c>
-      <c r="B20" s="358"/>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -8824,6 +8819,11 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8843,51 +8843,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="365" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="366"/>
+      <c r="I1" s="366"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="367" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1">
       <c r="A3" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="371" t="s">
+      <c r="B3" s="369" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371" t="s">
+      <c r="C3" s="369"/>
+      <c r="D3" s="369" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371" t="s">
+      <c r="E3" s="369"/>
+      <c r="F3" s="369" t="s">
         <v>560</v>
       </c>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371" t="s">
+      <c r="G3" s="369"/>
+      <c r="H3" s="369" t="s">
         <v>559</v>
       </c>
-      <c r="I3" s="371"/>
+      <c r="I3" s="369"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="218" t="s">
@@ -8919,17 +8919,17 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="371" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="367"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="219" t="s">
@@ -9164,17 +9164,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="371" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="367"/>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
+      <c r="B14" s="371"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="219" t="s">
@@ -9438,130 +9438,124 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="365" t="s">
+      <c r="A24" s="370" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="366"/>
-      <c r="C24" s="366"/>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
+      <c r="B24" s="368"/>
+      <c r="C24" s="368"/>
+      <c r="D24" s="368"/>
+      <c r="E24" s="368"/>
+      <c r="F24" s="368"/>
+      <c r="G24" s="368"/>
+      <c r="H24" s="368"/>
+      <c r="I24" s="368"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="365" t="s">
+      <c r="A25" s="370" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="366"/>
-      <c r="C25" s="366"/>
-      <c r="D25" s="366"/>
-      <c r="E25" s="366"/>
-      <c r="F25" s="366"/>
-      <c r="G25" s="366"/>
-      <c r="H25" s="366"/>
-      <c r="I25" s="366"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="368"/>
+      <c r="D25" s="368"/>
+      <c r="E25" s="368"/>
+      <c r="F25" s="368"/>
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="365" t="s">
+      <c r="A26" s="370" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="366"/>
-      <c r="C26" s="366"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="366"/>
-      <c r="G26" s="366"/>
-      <c r="H26" s="366"/>
-      <c r="I26" s="366"/>
+      <c r="B26" s="368"/>
+      <c r="C26" s="368"/>
+      <c r="D26" s="368"/>
+      <c r="E26" s="368"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="365" t="s">
+      <c r="A27" s="370" t="s">
         <v>546</v>
       </c>
-      <c r="B27" s="366"/>
-      <c r="C27" s="366"/>
-      <c r="D27" s="366"/>
-      <c r="E27" s="366"/>
-      <c r="F27" s="366"/>
-      <c r="G27" s="366"/>
-      <c r="H27" s="366"/>
-      <c r="I27" s="366"/>
+      <c r="B27" s="368"/>
+      <c r="C27" s="368"/>
+      <c r="D27" s="368"/>
+      <c r="E27" s="368"/>
+      <c r="F27" s="368"/>
+      <c r="G27" s="368"/>
+      <c r="H27" s="368"/>
+      <c r="I27" s="368"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="365" t="s">
+      <c r="A28" s="370" t="s">
         <v>547</v>
       </c>
-      <c r="B28" s="366"/>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="366"/>
-      <c r="I28" s="366"/>
+      <c r="B28" s="368"/>
+      <c r="C28" s="368"/>
+      <c r="D28" s="368"/>
+      <c r="E28" s="368"/>
+      <c r="F28" s="368"/>
+      <c r="G28" s="368"/>
+      <c r="H28" s="368"/>
+      <c r="I28" s="368"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="365" t="s">
+      <c r="A29" s="370" t="s">
         <v>548</v>
       </c>
-      <c r="B29" s="366"/>
-      <c r="C29" s="366"/>
-      <c r="D29" s="366"/>
-      <c r="E29" s="366"/>
-      <c r="F29" s="366"/>
-      <c r="G29" s="366"/>
-      <c r="H29" s="366"/>
-      <c r="I29" s="366"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="368"/>
+      <c r="D29" s="368"/>
+      <c r="E29" s="368"/>
+      <c r="F29" s="368"/>
+      <c r="G29" s="368"/>
+      <c r="H29" s="368"/>
+      <c r="I29" s="368"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="365" t="s">
+      <c r="A30" s="370" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="366"/>
-      <c r="C30" s="366"/>
-      <c r="D30" s="366"/>
-      <c r="E30" s="366"/>
-      <c r="F30" s="366"/>
-      <c r="G30" s="366"/>
-      <c r="H30" s="366"/>
-      <c r="I30" s="366"/>
+      <c r="B30" s="368"/>
+      <c r="C30" s="368"/>
+      <c r="D30" s="368"/>
+      <c r="E30" s="368"/>
+      <c r="F30" s="368"/>
+      <c r="G30" s="368"/>
+      <c r="H30" s="368"/>
+      <c r="I30" s="368"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="365" t="s">
+      <c r="A31" s="370" t="s">
         <v>549</v>
       </c>
-      <c r="B31" s="366"/>
-      <c r="C31" s="366"/>
-      <c r="D31" s="366"/>
-      <c r="E31" s="366"/>
-      <c r="F31" s="366"/>
-      <c r="G31" s="366"/>
-      <c r="H31" s="366"/>
-      <c r="I31" s="366"/>
+      <c r="B31" s="368"/>
+      <c r="C31" s="368"/>
+      <c r="D31" s="368"/>
+      <c r="E31" s="368"/>
+      <c r="F31" s="368"/>
+      <c r="G31" s="368"/>
+      <c r="H31" s="368"/>
+      <c r="I31" s="368"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="365" t="s">
+      <c r="A32" s="370" t="s">
         <v>550</v>
       </c>
-      <c r="B32" s="366"/>
-      <c r="C32" s="366"/>
-      <c r="D32" s="366"/>
-      <c r="E32" s="366"/>
-      <c r="F32" s="366"/>
-      <c r="G32" s="366"/>
-      <c r="H32" s="366"/>
-      <c r="I32" s="366"/>
+      <c r="B32" s="368"/>
+      <c r="C32" s="368"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="368"/>
+      <c r="F32" s="368"/>
+      <c r="G32" s="368"/>
+      <c r="H32" s="368"/>
+      <c r="I32" s="368"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A14:I14"/>
@@ -9573,6 +9567,12 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9611,50 +9611,50 @@
       <c r="M1" s="361"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="372" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="374" t="s">
+      <c r="B3" s="373" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374" t="s">
+      <c r="C3" s="373"/>
+      <c r="D3" s="373" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374" t="s">
+      <c r="E3" s="373"/>
+      <c r="F3" s="373" t="s">
         <v>551</v>
       </c>
-      <c r="G3" s="374"/>
-      <c r="H3" s="374" t="s">
+      <c r="G3" s="373"/>
+      <c r="H3" s="373" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="374"/>
-      <c r="J3" s="375" t="s">
+      <c r="I3" s="373"/>
+      <c r="J3" s="374" t="s">
         <v>558</v>
       </c>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375" t="s">
+      <c r="K3" s="374"/>
+      <c r="L3" s="374" t="s">
         <v>573</v>
       </c>
-      <c r="M3" s="375"/>
+      <c r="M3" s="374"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="214" t="s">
@@ -9862,194 +9862,205 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="375" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="358"/>
-      <c r="I9" s="358"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="358"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
+      <c r="B9" s="359"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="359"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="372" t="s">
+      <c r="A10" s="375" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="359"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="359"/>
+      <c r="L10" s="359"/>
+      <c r="M10" s="359"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="372" t="s">
+      <c r="A11" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
-      <c r="I11" s="358"/>
-      <c r="J11" s="358"/>
-      <c r="K11" s="358"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
+      <c r="L11" s="359"/>
+      <c r="M11" s="359"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="372" t="s">
+      <c r="A12" s="375" t="s">
         <v>554</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="358"/>
-      <c r="J12" s="358"/>
-      <c r="K12" s="358"/>
-      <c r="L12" s="358"/>
-      <c r="M12" s="358"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="359"/>
+      <c r="K12" s="359"/>
+      <c r="L12" s="359"/>
+      <c r="M12" s="359"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="372" t="s">
+      <c r="A13" s="375" t="s">
         <v>555</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="358"/>
-      <c r="H13" s="358"/>
-      <c r="I13" s="358"/>
-      <c r="J13" s="358"/>
-      <c r="K13" s="358"/>
-      <c r="L13" s="358"/>
-      <c r="M13" s="358"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
+      <c r="I13" s="359"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="359"/>
+      <c r="L13" s="359"/>
+      <c r="M13" s="359"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="372" t="s">
+      <c r="A14" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
-      <c r="G14" s="358"/>
-      <c r="H14" s="358"/>
-      <c r="I14" s="358"/>
-      <c r="J14" s="358"/>
-      <c r="K14" s="358"/>
-      <c r="L14" s="358"/>
-      <c r="M14" s="358"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
+      <c r="I14" s="359"/>
+      <c r="J14" s="359"/>
+      <c r="K14" s="359"/>
+      <c r="L14" s="359"/>
+      <c r="M14" s="359"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="372" t="s">
+      <c r="A15" s="375" t="s">
         <v>556</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
-      <c r="I15" s="358"/>
-      <c r="J15" s="358"/>
-      <c r="K15" s="358"/>
-      <c r="L15" s="358"/>
-      <c r="M15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="359"/>
+      <c r="H15" s="359"/>
+      <c r="I15" s="359"/>
+      <c r="J15" s="359"/>
+      <c r="K15" s="359"/>
+      <c r="L15" s="359"/>
+      <c r="M15" s="359"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="372" t="s">
+      <c r="A16" s="375" t="s">
         <v>547</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
-      <c r="I16" s="358"/>
-      <c r="J16" s="358"/>
-      <c r="K16" s="358"/>
-      <c r="L16" s="358"/>
-      <c r="M16" s="358"/>
+      <c r="B16" s="359"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="359"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="359"/>
+      <c r="K16" s="359"/>
+      <c r="L16" s="359"/>
+      <c r="M16" s="359"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="372" t="s">
+      <c r="A17" s="375" t="s">
         <v>628</v>
       </c>
-      <c r="B17" s="358"/>
-      <c r="C17" s="358"/>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="358"/>
-      <c r="I17" s="358"/>
-      <c r="J17" s="358"/>
-      <c r="K17" s="358"/>
-      <c r="L17" s="358"/>
-      <c r="M17" s="358"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="359"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="359"/>
+      <c r="H17" s="359"/>
+      <c r="I17" s="359"/>
+      <c r="J17" s="359"/>
+      <c r="K17" s="359"/>
+      <c r="L17" s="359"/>
+      <c r="M17" s="359"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="372" t="s">
+      <c r="A18" s="375" t="s">
         <v>299</v>
       </c>
-      <c r="B18" s="358"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="358"/>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="358"/>
-      <c r="J18" s="358"/>
-      <c r="K18" s="358"/>
-      <c r="L18" s="358"/>
-      <c r="M18" s="358"/>
+      <c r="B18" s="359"/>
+      <c r="C18" s="359"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
+      <c r="H18" s="359"/>
+      <c r="I18" s="359"/>
+      <c r="J18" s="359"/>
+      <c r="K18" s="359"/>
+      <c r="L18" s="359"/>
+      <c r="M18" s="359"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="372" t="s">
+      <c r="A19" s="375" t="s">
         <v>557</v>
       </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="358"/>
-      <c r="J19" s="358"/>
-      <c r="K19" s="358"/>
-      <c r="L19" s="358"/>
-      <c r="M19" s="358"/>
+      <c r="B19" s="359"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="359"/>
+      <c r="E19" s="359"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="359"/>
+      <c r="H19" s="359"/>
+      <c r="I19" s="359"/>
+      <c r="J19" s="359"/>
+      <c r="K19" s="359"/>
+      <c r="L19" s="359"/>
+      <c r="M19" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -10058,17 +10069,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11770,46 +11770,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
-      <c r="O1" s="387"/>
-      <c r="P1" s="387"/>
-      <c r="Q1" s="387"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="388"/>
+      <c r="P1" s="388"/>
+      <c r="Q1" s="388"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
       <c r="A2" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
-      <c r="Q2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
+      <c r="N2" s="359"/>
+      <c r="O2" s="359"/>
+      <c r="P2" s="359"/>
+      <c r="Q2" s="359"/>
     </row>
     <row r="3" spans="1:17" ht="0" hidden="1" customHeight="1"/>
     <row r="4" spans="1:17" ht="24" customHeight="1">
@@ -11895,25 +11895,25 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="357" t="s">
         <v>634</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="359"/>
+      <c r="B6" s="357"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
+      <c r="G6" s="357"/>
+      <c r="H6" s="357"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="357"/>
+      <c r="K6" s="357"/>
+      <c r="L6" s="357"/>
+      <c r="M6" s="357"/>
+      <c r="N6" s="357"/>
+      <c r="O6" s="357"/>
+      <c r="P6" s="357"/>
+      <c r="Q6" s="357"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="208" t="s">
@@ -12181,25 +12181,25 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="357" t="s">
         <v>635</v>
       </c>
-      <c r="B12" s="388"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="388"/>
-      <c r="E12" s="388"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="388"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="388"/>
-      <c r="J12" s="388"/>
-      <c r="K12" s="388"/>
-      <c r="L12" s="388"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="388"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
+      <c r="B12" s="389"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="389"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="208" t="s">
@@ -12838,25 +12838,25 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1">
-      <c r="A25" s="359" t="s">
+      <c r="A25" s="357" t="s">
         <v>641</v>
       </c>
-      <c r="B25" s="388"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="388"/>
-      <c r="H25" s="388"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="388"/>
-      <c r="K25" s="388"/>
-      <c r="L25" s="388"/>
-      <c r="M25" s="388"/>
-      <c r="N25" s="388"/>
-      <c r="O25" s="388"/>
-      <c r="P25" s="388"/>
-      <c r="Q25" s="388"/>
+      <c r="B25" s="389"/>
+      <c r="C25" s="389"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="389"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="389"/>
+      <c r="H25" s="389"/>
+      <c r="I25" s="389"/>
+      <c r="J25" s="389"/>
+      <c r="K25" s="389"/>
+      <c r="L25" s="389"/>
+      <c r="M25" s="389"/>
+      <c r="N25" s="389"/>
+      <c r="O25" s="389"/>
+      <c r="P25" s="389"/>
+      <c r="Q25" s="389"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1">
       <c r="A26" s="208" t="s">
@@ -13124,261 +13124,271 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
-      <c r="A31" s="389" t="s">
+      <c r="A31" s="386" t="s">
         <v>648</v>
       </c>
-      <c r="B31" s="389"/>
-      <c r="C31" s="389"/>
-      <c r="D31" s="389"/>
-      <c r="E31" s="389"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="389"/>
-      <c r="H31" s="389"/>
-      <c r="I31" s="389"/>
-      <c r="J31" s="389"/>
-      <c r="K31" s="389"/>
-      <c r="L31" s="389"/>
-      <c r="M31" s="389"/>
-      <c r="N31" s="389"/>
-      <c r="O31" s="389"/>
-      <c r="P31" s="389"/>
-      <c r="Q31" s="389"/>
+      <c r="B31" s="386"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="386"/>
+      <c r="E31" s="386"/>
+      <c r="F31" s="386"/>
+      <c r="G31" s="386"/>
+      <c r="H31" s="386"/>
+      <c r="I31" s="386"/>
+      <c r="J31" s="386"/>
+      <c r="K31" s="386"/>
+      <c r="L31" s="386"/>
+      <c r="M31" s="386"/>
+      <c r="N31" s="386"/>
+      <c r="O31" s="386"/>
+      <c r="P31" s="386"/>
+      <c r="Q31" s="386"/>
     </row>
     <row r="32" spans="1:17" ht="0" hidden="1" customHeight="1"/>
     <row r="33" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="357" t="s">
+      <c r="A33" s="358" t="s">
         <v>572</v>
       </c>
-      <c r="B33" s="358"/>
-      <c r="C33" s="358"/>
-      <c r="D33" s="358"/>
-      <c r="E33" s="358"/>
-      <c r="F33" s="358"/>
-      <c r="G33" s="358"/>
-      <c r="H33" s="358"/>
-      <c r="I33" s="358"/>
-      <c r="J33" s="358"/>
-      <c r="K33" s="358"/>
-      <c r="L33" s="358"/>
-      <c r="M33" s="358"/>
-      <c r="N33" s="358"/>
-      <c r="O33" s="358"/>
-      <c r="P33" s="358"/>
-      <c r="Q33" s="358"/>
+      <c r="B33" s="359"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="359"/>
+      <c r="K33" s="359"/>
+      <c r="L33" s="359"/>
+      <c r="M33" s="359"/>
+      <c r="N33" s="359"/>
+      <c r="O33" s="359"/>
+      <c r="P33" s="359"/>
+      <c r="Q33" s="359"/>
     </row>
     <row r="34" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="357" t="s">
+      <c r="A34" s="358" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="358"/>
-      <c r="C34" s="358"/>
-      <c r="D34" s="358"/>
-      <c r="E34" s="358"/>
-      <c r="F34" s="358"/>
-      <c r="G34" s="358"/>
-      <c r="H34" s="358"/>
-      <c r="I34" s="358"/>
-      <c r="J34" s="358"/>
-      <c r="K34" s="358"/>
-      <c r="L34" s="358"/>
-      <c r="M34" s="358"/>
-      <c r="N34" s="358"/>
-      <c r="O34" s="358"/>
-      <c r="P34" s="358"/>
-      <c r="Q34" s="358"/>
+      <c r="B34" s="359"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="359"/>
+      <c r="K34" s="359"/>
+      <c r="L34" s="359"/>
+      <c r="M34" s="359"/>
+      <c r="N34" s="359"/>
+      <c r="O34" s="359"/>
+      <c r="P34" s="359"/>
+      <c r="Q34" s="359"/>
     </row>
     <row r="35" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="357" t="s">
+      <c r="A35" s="358" t="s">
         <v>649</v>
       </c>
-      <c r="B35" s="358"/>
-      <c r="C35" s="358"/>
-      <c r="D35" s="358"/>
-      <c r="E35" s="358"/>
-      <c r="F35" s="358"/>
-      <c r="G35" s="358"/>
-      <c r="H35" s="358"/>
-      <c r="I35" s="358"/>
-      <c r="J35" s="358"/>
-      <c r="K35" s="358"/>
-      <c r="L35" s="358"/>
-      <c r="M35" s="358"/>
-      <c r="N35" s="358"/>
-      <c r="O35" s="358"/>
-      <c r="P35" s="358"/>
-      <c r="Q35" s="358"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
+      <c r="G35" s="359"/>
+      <c r="H35" s="359"/>
+      <c r="I35" s="359"/>
+      <c r="J35" s="359"/>
+      <c r="K35" s="359"/>
+      <c r="L35" s="359"/>
+      <c r="M35" s="359"/>
+      <c r="N35" s="359"/>
+      <c r="O35" s="359"/>
+      <c r="P35" s="359"/>
+      <c r="Q35" s="359"/>
     </row>
     <row r="36" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="357" t="s">
+      <c r="A36" s="358" t="s">
         <v>650</v>
       </c>
-      <c r="B36" s="358"/>
-      <c r="C36" s="358"/>
-      <c r="D36" s="358"/>
-      <c r="E36" s="358"/>
-      <c r="F36" s="358"/>
-      <c r="G36" s="358"/>
-      <c r="H36" s="358"/>
-      <c r="I36" s="358"/>
-      <c r="J36" s="358"/>
-      <c r="K36" s="358"/>
-      <c r="L36" s="358"/>
-      <c r="M36" s="358"/>
-      <c r="N36" s="358"/>
-      <c r="O36" s="358"/>
-      <c r="P36" s="358"/>
-      <c r="Q36" s="358"/>
+      <c r="B36" s="359"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="359"/>
+      <c r="H36" s="359"/>
+      <c r="I36" s="359"/>
+      <c r="J36" s="359"/>
+      <c r="K36" s="359"/>
+      <c r="L36" s="359"/>
+      <c r="M36" s="359"/>
+      <c r="N36" s="359"/>
+      <c r="O36" s="359"/>
+      <c r="P36" s="359"/>
+      <c r="Q36" s="359"/>
     </row>
     <row r="37" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A37" s="357" t="s">
+      <c r="A37" s="358" t="s">
         <v>651</v>
       </c>
-      <c r="B37" s="358"/>
-      <c r="C37" s="358"/>
-      <c r="D37" s="358"/>
-      <c r="E37" s="358"/>
-      <c r="F37" s="358"/>
-      <c r="G37" s="358"/>
-      <c r="H37" s="358"/>
-      <c r="I37" s="358"/>
-      <c r="J37" s="358"/>
-      <c r="K37" s="358"/>
-      <c r="L37" s="358"/>
-      <c r="M37" s="358"/>
-      <c r="N37" s="358"/>
-      <c r="O37" s="358"/>
-      <c r="P37" s="358"/>
-      <c r="Q37" s="358"/>
+      <c r="B37" s="359"/>
+      <c r="C37" s="359"/>
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
+      <c r="F37" s="359"/>
+      <c r="G37" s="359"/>
+      <c r="H37" s="359"/>
+      <c r="I37" s="359"/>
+      <c r="J37" s="359"/>
+      <c r="K37" s="359"/>
+      <c r="L37" s="359"/>
+      <c r="M37" s="359"/>
+      <c r="N37" s="359"/>
+      <c r="O37" s="359"/>
+      <c r="P37" s="359"/>
+      <c r="Q37" s="359"/>
     </row>
     <row r="38" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="357" t="s">
+      <c r="A38" s="358" t="s">
         <v>652</v>
       </c>
-      <c r="B38" s="358"/>
-      <c r="C38" s="358"/>
-      <c r="D38" s="358"/>
-      <c r="E38" s="358"/>
-      <c r="F38" s="358"/>
-      <c r="G38" s="358"/>
-      <c r="H38" s="358"/>
-      <c r="I38" s="358"/>
-      <c r="J38" s="358"/>
-      <c r="K38" s="358"/>
-      <c r="L38" s="358"/>
-      <c r="M38" s="358"/>
-      <c r="N38" s="358"/>
-      <c r="O38" s="358"/>
-      <c r="P38" s="358"/>
-      <c r="Q38" s="358"/>
+      <c r="B38" s="359"/>
+      <c r="C38" s="359"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="359"/>
+      <c r="H38" s="359"/>
+      <c r="I38" s="359"/>
+      <c r="J38" s="359"/>
+      <c r="K38" s="359"/>
+      <c r="L38" s="359"/>
+      <c r="M38" s="359"/>
+      <c r="N38" s="359"/>
+      <c r="O38" s="359"/>
+      <c r="P38" s="359"/>
+      <c r="Q38" s="359"/>
     </row>
     <row r="39" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="357" t="s">
+      <c r="A39" s="358" t="s">
         <v>653</v>
       </c>
-      <c r="B39" s="358"/>
-      <c r="C39" s="358"/>
-      <c r="D39" s="358"/>
-      <c r="E39" s="358"/>
-      <c r="F39" s="358"/>
-      <c r="G39" s="358"/>
-      <c r="H39" s="358"/>
-      <c r="I39" s="358"/>
-      <c r="J39" s="358"/>
-      <c r="K39" s="358"/>
-      <c r="L39" s="358"/>
-      <c r="M39" s="358"/>
-      <c r="N39" s="358"/>
-      <c r="O39" s="358"/>
-      <c r="P39" s="358"/>
-      <c r="Q39" s="358"/>
+      <c r="B39" s="359"/>
+      <c r="C39" s="359"/>
+      <c r="D39" s="359"/>
+      <c r="E39" s="359"/>
+      <c r="F39" s="359"/>
+      <c r="G39" s="359"/>
+      <c r="H39" s="359"/>
+      <c r="I39" s="359"/>
+      <c r="J39" s="359"/>
+      <c r="K39" s="359"/>
+      <c r="L39" s="359"/>
+      <c r="M39" s="359"/>
+      <c r="N39" s="359"/>
+      <c r="O39" s="359"/>
+      <c r="P39" s="359"/>
+      <c r="Q39" s="359"/>
     </row>
     <row r="40" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="357" t="s">
+      <c r="A40" s="358" t="s">
         <v>654</v>
       </c>
-      <c r="B40" s="358"/>
-      <c r="C40" s="358"/>
-      <c r="D40" s="358"/>
-      <c r="E40" s="358"/>
-      <c r="F40" s="358"/>
-      <c r="G40" s="358"/>
-      <c r="H40" s="358"/>
-      <c r="I40" s="358"/>
-      <c r="J40" s="358"/>
-      <c r="K40" s="358"/>
-      <c r="L40" s="358"/>
-      <c r="M40" s="358"/>
-      <c r="N40" s="358"/>
-      <c r="O40" s="358"/>
-      <c r="P40" s="358"/>
-      <c r="Q40" s="358"/>
+      <c r="B40" s="359"/>
+      <c r="C40" s="359"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359"/>
+      <c r="J40" s="359"/>
+      <c r="K40" s="359"/>
+      <c r="L40" s="359"/>
+      <c r="M40" s="359"/>
+      <c r="N40" s="359"/>
+      <c r="O40" s="359"/>
+      <c r="P40" s="359"/>
+      <c r="Q40" s="359"/>
     </row>
     <row r="41" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="357" t="s">
+      <c r="A41" s="358" t="s">
         <v>655</v>
       </c>
-      <c r="B41" s="358"/>
-      <c r="C41" s="358"/>
-      <c r="D41" s="358"/>
-      <c r="E41" s="358"/>
-      <c r="F41" s="358"/>
-      <c r="G41" s="358"/>
-      <c r="H41" s="358"/>
-      <c r="I41" s="358"/>
-      <c r="J41" s="358"/>
-      <c r="K41" s="358"/>
-      <c r="L41" s="358"/>
-      <c r="M41" s="358"/>
-      <c r="N41" s="358"/>
-      <c r="O41" s="358"/>
-      <c r="P41" s="358"/>
-      <c r="Q41" s="358"/>
+      <c r="B41" s="359"/>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="359"/>
+      <c r="G41" s="359"/>
+      <c r="H41" s="359"/>
+      <c r="I41" s="359"/>
+      <c r="J41" s="359"/>
+      <c r="K41" s="359"/>
+      <c r="L41" s="359"/>
+      <c r="M41" s="359"/>
+      <c r="N41" s="359"/>
+      <c r="O41" s="359"/>
+      <c r="P41" s="359"/>
+      <c r="Q41" s="359"/>
     </row>
     <row r="42" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="357" t="s">
+      <c r="A42" s="358" t="s">
         <v>656</v>
       </c>
-      <c r="B42" s="358"/>
-      <c r="C42" s="358"/>
-      <c r="D42" s="358"/>
-      <c r="E42" s="358"/>
-      <c r="F42" s="358"/>
-      <c r="G42" s="358"/>
-      <c r="H42" s="358"/>
-      <c r="I42" s="358"/>
-      <c r="J42" s="358"/>
-      <c r="K42" s="358"/>
-      <c r="L42" s="358"/>
-      <c r="M42" s="358"/>
-      <c r="N42" s="358"/>
-      <c r="O42" s="358"/>
-      <c r="P42" s="358"/>
-      <c r="Q42" s="358"/>
+      <c r="B42" s="359"/>
+      <c r="C42" s="359"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="359"/>
+      <c r="G42" s="359"/>
+      <c r="H42" s="359"/>
+      <c r="I42" s="359"/>
+      <c r="J42" s="359"/>
+      <c r="K42" s="359"/>
+      <c r="L42" s="359"/>
+      <c r="M42" s="359"/>
+      <c r="N42" s="359"/>
+      <c r="O42" s="359"/>
+      <c r="P42" s="359"/>
+      <c r="Q42" s="359"/>
     </row>
     <row r="43" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A43" s="357" t="s">
+      <c r="A43" s="358" t="s">
         <v>658</v>
       </c>
-      <c r="B43" s="358"/>
-      <c r="C43" s="358"/>
-      <c r="D43" s="358"/>
-      <c r="E43" s="358"/>
-      <c r="F43" s="358"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="358"/>
-      <c r="L43" s="358"/>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358"/>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358"/>
+      <c r="B43" s="359"/>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
+      <c r="F43" s="359"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="359"/>
+      <c r="K43" s="359"/>
+      <c r="L43" s="359"/>
+      <c r="M43" s="359"/>
+      <c r="N43" s="359"/>
+      <c r="O43" s="359"/>
+      <c r="P43" s="359"/>
+      <c r="Q43" s="359"/>
     </row>
     <row r="44" spans="1:17" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A37:Q37"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A40:Q40"/>
     <mergeCell ref="A41:Q41"/>
     <mergeCell ref="A42:Q42"/>
@@ -13390,16 +13400,6 @@
     <mergeCell ref="A36:Q36"/>
     <mergeCell ref="A38:Q38"/>
     <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A37:Q37"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14290,86 +14290,86 @@
       <c r="A12" s="394" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="366"/>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="366"/>
-      <c r="F12" s="366"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="366"/>
-      <c r="I12" s="366"/>
-      <c r="J12" s="366"/>
-      <c r="K12" s="366"/>
-      <c r="L12" s="366"/>
-      <c r="M12" s="366"/>
+      <c r="B12" s="368"/>
+      <c r="C12" s="368"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="368"/>
+      <c r="F12" s="368"/>
+      <c r="G12" s="368"/>
+      <c r="H12" s="368"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="368"/>
+      <c r="K12" s="368"/>
+      <c r="L12" s="368"/>
+      <c r="M12" s="368"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="366"/>
-      <c r="C13" s="366"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="366"/>
-      <c r="F13" s="366"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
-      <c r="I13" s="366"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="366"/>
-      <c r="L13" s="366"/>
-      <c r="M13" s="366"/>
+      <c r="B13" s="368"/>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="368"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="368"/>
+      <c r="M13" s="368"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="390" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="366"/>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="366"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="368"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="390" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="366"/>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
-      <c r="J15" s="366"/>
-      <c r="K15" s="366"/>
-      <c r="L15" s="366"/>
-      <c r="M15" s="366"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="368"/>
+      <c r="H15" s="368"/>
+      <c r="I15" s="368"/>
+      <c r="J15" s="368"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="368"/>
+      <c r="M15" s="368"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="390" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="366"/>
-      <c r="C16" s="366"/>
-      <c r="D16" s="366"/>
-      <c r="E16" s="366"/>
-      <c r="F16" s="366"/>
-      <c r="G16" s="366"/>
-      <c r="H16" s="366"/>
-      <c r="I16" s="366"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="366"/>
-      <c r="L16" s="366"/>
-      <c r="M16" s="366"/>
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="368"/>
+      <c r="I16" s="368"/>
+      <c r="J16" s="368"/>
+      <c r="K16" s="368"/>
+      <c r="L16" s="368"/>
+      <c r="M16" s="368"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14837,164 +14837,157 @@
       <c r="A13" s="394" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="366"/>
-      <c r="C13" s="366"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="366"/>
-      <c r="F13" s="366"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
-      <c r="I13" s="366"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="366"/>
-      <c r="L13" s="366"/>
-      <c r="M13" s="366"/>
+      <c r="B13" s="368"/>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="368"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="368"/>
+      <c r="M13" s="368"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="366"/>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="366"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="368"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="390" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="366"/>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
-      <c r="J15" s="366"/>
-      <c r="K15" s="366"/>
-      <c r="L15" s="366"/>
-      <c r="M15" s="366"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="368"/>
+      <c r="H15" s="368"/>
+      <c r="I15" s="368"/>
+      <c r="J15" s="368"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="368"/>
+      <c r="M15" s="368"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="390" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="366"/>
-      <c r="C16" s="366"/>
-      <c r="D16" s="366"/>
-      <c r="E16" s="366"/>
-      <c r="F16" s="366"/>
-      <c r="G16" s="366"/>
-      <c r="H16" s="366"/>
-      <c r="I16" s="366"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="366"/>
-      <c r="L16" s="366"/>
-      <c r="M16" s="366"/>
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="368"/>
+      <c r="I16" s="368"/>
+      <c r="J16" s="368"/>
+      <c r="K16" s="368"/>
+      <c r="L16" s="368"/>
+      <c r="M16" s="368"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="390" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="366"/>
-      <c r="C17" s="366"/>
-      <c r="D17" s="366"/>
-      <c r="E17" s="366"/>
-      <c r="F17" s="366"/>
-      <c r="G17" s="366"/>
-      <c r="H17" s="366"/>
-      <c r="I17" s="366"/>
-      <c r="J17" s="366"/>
-      <c r="K17" s="366"/>
-      <c r="L17" s="366"/>
-      <c r="M17" s="366"/>
+      <c r="B17" s="368"/>
+      <c r="C17" s="368"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
+      <c r="F17" s="368"/>
+      <c r="G17" s="368"/>
+      <c r="H17" s="368"/>
+      <c r="I17" s="368"/>
+      <c r="J17" s="368"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="368"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="390" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="366"/>
-      <c r="C18" s="366"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
-      <c r="F18" s="366"/>
-      <c r="G18" s="366"/>
-      <c r="H18" s="366"/>
-      <c r="I18" s="366"/>
-      <c r="J18" s="366"/>
-      <c r="K18" s="366"/>
-      <c r="L18" s="366"/>
-      <c r="M18" s="366"/>
+      <c r="B18" s="368"/>
+      <c r="C18" s="368"/>
+      <c r="D18" s="368"/>
+      <c r="E18" s="368"/>
+      <c r="F18" s="368"/>
+      <c r="G18" s="368"/>
+      <c r="H18" s="368"/>
+      <c r="I18" s="368"/>
+      <c r="J18" s="368"/>
+      <c r="K18" s="368"/>
+      <c r="L18" s="368"/>
+      <c r="M18" s="368"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="390" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="366"/>
-      <c r="C19" s="366"/>
-      <c r="D19" s="366"/>
-      <c r="E19" s="366"/>
-      <c r="F19" s="366"/>
-      <c r="G19" s="366"/>
-      <c r="H19" s="366"/>
-      <c r="I19" s="366"/>
-      <c r="J19" s="366"/>
-      <c r="K19" s="366"/>
-      <c r="L19" s="366"/>
-      <c r="M19" s="366"/>
+      <c r="B19" s="368"/>
+      <c r="C19" s="368"/>
+      <c r="D19" s="368"/>
+      <c r="E19" s="368"/>
+      <c r="F19" s="368"/>
+      <c r="G19" s="368"/>
+      <c r="H19" s="368"/>
+      <c r="I19" s="368"/>
+      <c r="J19" s="368"/>
+      <c r="K19" s="368"/>
+      <c r="L19" s="368"/>
+      <c r="M19" s="368"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="390" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="366"/>
-      <c r="C20" s="366"/>
-      <c r="D20" s="366"/>
-      <c r="E20" s="366"/>
-      <c r="F20" s="366"/>
-      <c r="G20" s="366"/>
-      <c r="H20" s="366"/>
-      <c r="I20" s="366"/>
-      <c r="J20" s="366"/>
-      <c r="K20" s="366"/>
-      <c r="L20" s="366"/>
-      <c r="M20" s="366"/>
+      <c r="B20" s="368"/>
+      <c r="C20" s="368"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
+      <c r="F20" s="368"/>
+      <c r="G20" s="368"/>
+      <c r="H20" s="368"/>
+      <c r="I20" s="368"/>
+      <c r="J20" s="368"/>
+      <c r="K20" s="368"/>
+      <c r="L20" s="368"/>
+      <c r="M20" s="368"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="390" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="366"/>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="366"/>
-      <c r="I21" s="366"/>
-      <c r="J21" s="366"/>
-      <c r="K21" s="366"/>
-      <c r="L21" s="366"/>
-      <c r="M21" s="366"/>
+      <c r="B21" s="368"/>
+      <c r="C21" s="368"/>
+      <c r="D21" s="368"/>
+      <c r="E21" s="368"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="368"/>
+      <c r="H21" s="368"/>
+      <c r="I21" s="368"/>
+      <c r="J21" s="368"/>
+      <c r="K21" s="368"/>
+      <c r="L21" s="368"/>
+      <c r="M21" s="368"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="A21:M21"/>
@@ -15004,6 +14997,13 @@
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15445,18 +15445,18 @@
       <c r="A14" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="366"/>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="366"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="368"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="395" t="s">
@@ -15852,28 +15852,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="403" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="76"/>
-      <c r="B2" s="408" t="s">
+      <c r="B2" s="405" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="408"/>
-      <c r="D2" s="409" t="s">
+      <c r="C2" s="405"/>
+      <c r="D2" s="406" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
       <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="45.75">
@@ -15900,14 +15900,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="79"/>
-      <c r="B4" s="410" t="s">
+      <c r="B4" s="407" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
+      <c r="C4" s="407"/>
+      <c r="D4" s="407"/>
+      <c r="E4" s="407"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="65" t="s">
@@ -16416,15 +16416,15 @@
       <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="404" t="s">
+      <c r="A27" s="408" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="404"/>
-      <c r="C27" s="404"/>
-      <c r="D27" s="404"/>
-      <c r="E27" s="404"/>
-      <c r="F27" s="404"/>
-      <c r="G27" s="404"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="408"/>
+      <c r="E27" s="408"/>
+      <c r="F27" s="408"/>
+      <c r="G27" s="408"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
     </row>
@@ -16440,103 +16440,103 @@
       <c r="G28" s="378"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A29" s="407" t="s">
+      <c r="A29" s="404" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="407"/>
-      <c r="C29" s="407"/>
-      <c r="D29" s="407"/>
-      <c r="E29" s="407"/>
-      <c r="F29" s="407"/>
-      <c r="G29" s="407"/>
+      <c r="B29" s="404"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="404"/>
+      <c r="E29" s="404"/>
+      <c r="F29" s="404"/>
+      <c r="G29" s="404"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="405" t="s">
+      <c r="A30" s="410" t="s">
         <v>320</v>
       </c>
-      <c r="B30" s="405"/>
-      <c r="C30" s="405"/>
-      <c r="D30" s="405"/>
-      <c r="E30" s="405"/>
-      <c r="F30" s="405"/>
-      <c r="G30" s="405"/>
+      <c r="B30" s="410"/>
+      <c r="C30" s="410"/>
+      <c r="D30" s="410"/>
+      <c r="E30" s="410"/>
+      <c r="F30" s="410"/>
+      <c r="G30" s="410"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="408" t="s">
         <v>321</v>
       </c>
-      <c r="B31" s="404"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="404"/>
-      <c r="E31" s="404"/>
-      <c r="F31" s="404"/>
-      <c r="G31" s="404"/>
+      <c r="B31" s="408"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="408"/>
+      <c r="F31" s="408"/>
+      <c r="G31" s="408"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="403" t="s">
+      <c r="A32" s="409" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="403"/>
-      <c r="C32" s="403"/>
-      <c r="D32" s="403"/>
-      <c r="E32" s="403"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="403"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="409"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="409"/>
+      <c r="F32" s="409"/>
+      <c r="G32" s="409"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A33" s="403" t="s">
+      <c r="A33" s="409" t="s">
         <v>323</v>
       </c>
-      <c r="B33" s="403"/>
-      <c r="C33" s="403"/>
-      <c r="D33" s="403"/>
-      <c r="E33" s="403"/>
-      <c r="F33" s="403"/>
-      <c r="G33" s="403"/>
+      <c r="B33" s="409"/>
+      <c r="C33" s="409"/>
+      <c r="D33" s="409"/>
+      <c r="E33" s="409"/>
+      <c r="F33" s="409"/>
+      <c r="G33" s="409"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A34" s="403" t="s">
+      <c r="A34" s="409" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="403"/>
-      <c r="C34" s="403"/>
-      <c r="D34" s="403"/>
-      <c r="E34" s="403"/>
-      <c r="F34" s="403"/>
-      <c r="G34" s="403"/>
+      <c r="B34" s="409"/>
+      <c r="C34" s="409"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="409"/>
+      <c r="F34" s="409"/>
+      <c r="G34" s="409"/>
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A35" s="403" t="s">
+      <c r="A35" s="409" t="s">
         <v>325</v>
       </c>
-      <c r="B35" s="403"/>
-      <c r="C35" s="403"/>
-      <c r="D35" s="403"/>
-      <c r="E35" s="403"/>
-      <c r="F35" s="403"/>
-      <c r="G35" s="403"/>
+      <c r="B35" s="409"/>
+      <c r="C35" s="409"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="404" t="s">
+      <c r="A36" s="408" t="s">
         <v>326</v>
       </c>
-      <c r="B36" s="404"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="404"/>
-      <c r="E36" s="404"/>
-      <c r="F36" s="404"/>
-      <c r="G36" s="404"/>
+      <c r="B36" s="408"/>
+      <c r="C36" s="408"/>
+      <c r="D36" s="408"/>
+      <c r="E36" s="408"/>
+      <c r="F36" s="408"/>
+      <c r="G36" s="408"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="404" t="s">
+      <c r="A37" s="408" t="s">
         <v>327</v>
       </c>
-      <c r="B37" s="404"/>
-      <c r="C37" s="404"/>
-      <c r="D37" s="404"/>
-      <c r="E37" s="404"/>
-      <c r="F37" s="404"/>
-      <c r="G37" s="404"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="408"/>
+      <c r="D37" s="408"/>
+      <c r="E37" s="408"/>
+      <c r="F37" s="408"/>
+      <c r="G37" s="408"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="147" t="s">
@@ -16714,13 +16714,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
@@ -16729,6 +16722,13 @@
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16768,15 +16768,15 @@
       <c r="A2" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="206" t="s">
@@ -16831,18 +16831,18 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="359" t="s">
+      <c r="A5" s="357" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="208" t="s">
@@ -17005,18 +17005,18 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="357" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="359"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="359"/>
-      <c r="E11" s="359"/>
-      <c r="F11" s="359"/>
-      <c r="G11" s="359"/>
-      <c r="H11" s="359"/>
-      <c r="I11" s="359"/>
-      <c r="J11" s="359"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="208" t="s">
@@ -17179,18 +17179,18 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="357" t="s">
         <v>298</v>
       </c>
-      <c r="B17" s="359"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="359"/>
-      <c r="E17" s="359"/>
-      <c r="F17" s="359"/>
-      <c r="G17" s="359"/>
-      <c r="H17" s="359"/>
-      <c r="I17" s="359"/>
-      <c r="J17" s="359"/>
+      <c r="B17" s="357"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="357"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="357"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="208" t="s">
@@ -17353,91 +17353,97 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="357" t="s">
+      <c r="A23" s="358" t="s">
         <v>572</v>
       </c>
-      <c r="B23" s="358"/>
-      <c r="C23" s="358"/>
-      <c r="D23" s="358"/>
-      <c r="E23" s="358"/>
-      <c r="F23" s="358"/>
-      <c r="G23" s="358"/>
-      <c r="H23" s="358"/>
-      <c r="I23" s="358"/>
-      <c r="J23" s="358"/>
+      <c r="B23" s="359"/>
+      <c r="C23" s="359"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="359"/>
+      <c r="F23" s="359"/>
+      <c r="G23" s="359"/>
+      <c r="H23" s="359"/>
+      <c r="I23" s="359"/>
+      <c r="J23" s="359"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="357" t="s">
+      <c r="A24" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="358"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="358"/>
-      <c r="F24" s="358"/>
-      <c r="G24" s="358"/>
-      <c r="H24" s="358"/>
-      <c r="I24" s="358"/>
-      <c r="J24" s="358"/>
+      <c r="B24" s="359"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="359"/>
+      <c r="F24" s="359"/>
+      <c r="G24" s="359"/>
+      <c r="H24" s="359"/>
+      <c r="I24" s="359"/>
+      <c r="J24" s="359"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="357" t="s">
+      <c r="A25" s="358" t="s">
         <v>527</v>
       </c>
-      <c r="B25" s="358"/>
-      <c r="C25" s="358"/>
-      <c r="D25" s="358"/>
-      <c r="E25" s="358"/>
-      <c r="F25" s="358"/>
-      <c r="G25" s="358"/>
-      <c r="H25" s="358"/>
-      <c r="I25" s="358"/>
-      <c r="J25" s="358"/>
+      <c r="B25" s="359"/>
+      <c r="C25" s="359"/>
+      <c r="D25" s="359"/>
+      <c r="E25" s="359"/>
+      <c r="F25" s="359"/>
+      <c r="G25" s="359"/>
+      <c r="H25" s="359"/>
+      <c r="I25" s="359"/>
+      <c r="J25" s="359"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="357" t="s">
+      <c r="A26" s="358" t="s">
         <v>577</v>
       </c>
-      <c r="B26" s="358"/>
-      <c r="C26" s="358"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="358"/>
-      <c r="I26" s="358"/>
-      <c r="J26" s="358"/>
+      <c r="B26" s="359"/>
+      <c r="C26" s="359"/>
+      <c r="D26" s="359"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="359"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="359"/>
+      <c r="J26" s="359"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="357" t="s">
+      <c r="A27" s="358" t="s">
         <v>299</v>
       </c>
-      <c r="B27" s="358"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="358"/>
-      <c r="E27" s="358"/>
-      <c r="F27" s="358"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
+      <c r="B27" s="359"/>
+      <c r="C27" s="359"/>
+      <c r="D27" s="359"/>
+      <c r="E27" s="359"/>
+      <c r="F27" s="359"/>
+      <c r="G27" s="359"/>
+      <c r="H27" s="359"/>
+      <c r="I27" s="359"/>
+      <c r="J27" s="359"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="357" t="s">
+      <c r="A28" s="358" t="s">
         <v>629</v>
       </c>
-      <c r="B28" s="358"/>
-      <c r="C28" s="358"/>
-      <c r="D28" s="358"/>
-      <c r="E28" s="358"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="358"/>
-      <c r="H28" s="358"/>
-      <c r="I28" s="358"/>
-      <c r="J28" s="358"/>
+      <c r="B28" s="359"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="359"/>
+      <c r="H28" s="359"/>
+      <c r="I28" s="359"/>
+      <c r="J28" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A17:J17"/>
@@ -17446,12 +17452,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18066,15 +18066,15 @@
       <c r="G23" s="104"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="408" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="404"/>
-      <c r="C24" s="404"/>
-      <c r="D24" s="404"/>
-      <c r="E24" s="404"/>
-      <c r="F24" s="404"/>
-      <c r="G24" s="404"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
+      <c r="F24" s="408"/>
+      <c r="G24" s="408"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="273" t="s">
@@ -18475,16 +18475,16 @@
       <c r="AC19" s="271"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="404" t="s">
+      <c r="A20" s="408" t="s">
         <v>728</v>
       </c>
-      <c r="B20" s="404"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="404"/>
+      <c r="B20" s="408"/>
+      <c r="C20" s="408"/>
+      <c r="D20" s="408"/>
+      <c r="E20" s="408"/>
+      <c r="F20" s="408"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="408"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="15" t="s">
@@ -18504,7 +18504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O4" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -21074,21 +21074,21 @@
       <c r="A2" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
+      <c r="N2" s="359"/>
+      <c r="O2" s="359"/>
+      <c r="P2" s="359"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="206" t="s">
@@ -21367,64 +21367,64 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="358" t="s">
         <v>572</v>
       </c>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="358"/>
-      <c r="I9" s="358"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="358"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="358"/>
-      <c r="O9" s="358"/>
-      <c r="P9" s="358"/>
+      <c r="B9" s="359"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="359"/>
+      <c r="O9" s="359"/>
+      <c r="P9" s="359"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="358" t="s">
         <v>583</v>
       </c>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="358"/>
-      <c r="P10" s="358"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="359"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="359"/>
+      <c r="L10" s="359"/>
+      <c r="M10" s="359"/>
+      <c r="N10" s="359"/>
+      <c r="O10" s="359"/>
+      <c r="P10" s="359"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="358" t="s">
         <v>630</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
-      <c r="I11" s="358"/>
-      <c r="J11" s="358"/>
-      <c r="K11" s="358"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
+      <c r="L11" s="359"/>
+      <c r="M11" s="359"/>
+      <c r="N11" s="359"/>
+      <c r="O11" s="359"/>
+      <c r="P11" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21476,50 +21476,50 @@
       <c r="P1" s="361"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="372" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
+      <c r="N2" s="359"/>
+      <c r="O2" s="359"/>
+      <c r="P2" s="359"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="374" t="s">
+      <c r="B3" s="373" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374" t="s">
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="374"/>
-      <c r="I3" s="374"/>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="374" t="s">
+      <c r="H3" s="373"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="373" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
-      <c r="O3" s="374"/>
-      <c r="P3" s="374"/>
+      <c r="M3" s="373"/>
+      <c r="N3" s="373"/>
+      <c r="O3" s="373"/>
+      <c r="P3" s="373"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="214" t="s">
@@ -21772,64 +21772,64 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="375" t="s">
         <v>572</v>
       </c>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="358"/>
-      <c r="I9" s="358"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="358"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="358"/>
-      <c r="O9" s="358"/>
-      <c r="P9" s="358"/>
+      <c r="B9" s="359"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="359"/>
+      <c r="O9" s="359"/>
+      <c r="P9" s="359"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="372" t="s">
+      <c r="A10" s="375" t="s">
         <v>583</v>
       </c>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="358"/>
-      <c r="P10" s="358"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="359"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="359"/>
+      <c r="L10" s="359"/>
+      <c r="M10" s="359"/>
+      <c r="N10" s="359"/>
+      <c r="O10" s="359"/>
+      <c r="P10" s="359"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="372" t="s">
+      <c r="A11" s="375" t="s">
         <v>590</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
-      <c r="I11" s="358"/>
-      <c r="J11" s="358"/>
-      <c r="K11" s="358"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
+      <c r="L11" s="359"/>
+      <c r="M11" s="359"/>
+      <c r="N11" s="359"/>
+      <c r="O11" s="359"/>
+      <c r="P11" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21860,63 +21860,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="387" t="s">
         <v>608</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="372" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="374" t="s">
+      <c r="B3" s="373" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374" t="s">
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373" t="s">
         <v>580</v>
       </c>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="374" t="s">
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="374"/>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374" t="s">
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
+      <c r="L3" s="373"/>
+      <c r="M3" s="373"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="214" t="s">
@@ -22592,72 +22592,72 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="372" t="s">
+      <c r="A21" s="375" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="358"/>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="358"/>
-      <c r="J21" s="358"/>
-      <c r="K21" s="358"/>
-      <c r="L21" s="358"/>
-      <c r="M21" s="358"/>
+      <c r="B21" s="359"/>
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
+      <c r="K21" s="359"/>
+      <c r="L21" s="359"/>
+      <c r="M21" s="359"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="372" t="s">
+      <c r="A22" s="375" t="s">
         <v>572</v>
       </c>
-      <c r="B22" s="358"/>
-      <c r="C22" s="358"/>
-      <c r="D22" s="358"/>
-      <c r="E22" s="358"/>
-      <c r="F22" s="358"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="358"/>
-      <c r="I22" s="358"/>
-      <c r="J22" s="358"/>
-      <c r="K22" s="358"/>
-      <c r="L22" s="358"/>
-      <c r="M22" s="358"/>
+      <c r="B22" s="359"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="359"/>
+      <c r="F22" s="359"/>
+      <c r="G22" s="359"/>
+      <c r="H22" s="359"/>
+      <c r="I22" s="359"/>
+      <c r="J22" s="359"/>
+      <c r="K22" s="359"/>
+      <c r="L22" s="359"/>
+      <c r="M22" s="359"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="372" t="s">
+      <c r="A23" s="375" t="s">
         <v>606</v>
       </c>
-      <c r="B23" s="358"/>
-      <c r="C23" s="358"/>
-      <c r="D23" s="358"/>
-      <c r="E23" s="358"/>
-      <c r="F23" s="358"/>
-      <c r="G23" s="358"/>
-      <c r="H23" s="358"/>
-      <c r="I23" s="358"/>
-      <c r="J23" s="358"/>
-      <c r="K23" s="358"/>
-      <c r="L23" s="358"/>
-      <c r="M23" s="358"/>
+      <c r="B23" s="359"/>
+      <c r="C23" s="359"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="359"/>
+      <c r="F23" s="359"/>
+      <c r="G23" s="359"/>
+      <c r="H23" s="359"/>
+      <c r="I23" s="359"/>
+      <c r="J23" s="359"/>
+      <c r="K23" s="359"/>
+      <c r="L23" s="359"/>
+      <c r="M23" s="359"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="372" t="s">
+      <c r="A24" s="375" t="s">
         <v>607</v>
       </c>
-      <c r="B24" s="358"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="358"/>
-      <c r="F24" s="358"/>
-      <c r="G24" s="358"/>
-      <c r="H24" s="358"/>
-      <c r="I24" s="358"/>
-      <c r="J24" s="358"/>
-      <c r="K24" s="358"/>
-      <c r="L24" s="358"/>
-      <c r="M24" s="358"/>
+      <c r="B24" s="359"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="359"/>
+      <c r="F24" s="359"/>
+      <c r="G24" s="359"/>
+      <c r="H24" s="359"/>
+      <c r="I24" s="359"/>
+      <c r="J24" s="359"/>
+      <c r="K24" s="359"/>
+      <c r="L24" s="359"/>
+      <c r="M24" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24535,34 +24535,34 @@
       <c r="I1" s="361"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="372" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1">
       <c r="A3" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="374" t="s">
         <v>610</v>
       </c>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375" t="s">
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374" t="s">
         <v>611</v>
       </c>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="375"/>
+      <c r="G3" s="374"/>
+      <c r="H3" s="374"/>
+      <c r="I3" s="374"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="214" t="s">
@@ -24855,124 +24855,129 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="372" t="s">
+      <c r="A14" s="375" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
-      <c r="G14" s="358"/>
-      <c r="H14" s="358"/>
-      <c r="I14" s="358"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
+      <c r="I14" s="359"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="372" t="s">
+      <c r="A15" s="375" t="s">
         <v>572</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
-      <c r="I15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="359"/>
+      <c r="H15" s="359"/>
+      <c r="I15" s="359"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="372" t="s">
+      <c r="A16" s="375" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
-      <c r="I16" s="358"/>
+      <c r="B16" s="359"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="359"/>
+      <c r="I16" s="359"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="372" t="s">
+      <c r="A17" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="358"/>
-      <c r="C17" s="358"/>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="358"/>
-      <c r="I17" s="358"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="359"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="359"/>
+      <c r="H17" s="359"/>
+      <c r="I17" s="359"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="372" t="s">
+      <c r="A18" s="375" t="s">
         <v>556</v>
       </c>
-      <c r="B18" s="358"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="358"/>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="358"/>
+      <c r="B18" s="359"/>
+      <c r="C18" s="359"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
+      <c r="H18" s="359"/>
+      <c r="I18" s="359"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="372" t="s">
+      <c r="A19" s="375" t="s">
         <v>621</v>
       </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="358"/>
+      <c r="B19" s="359"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="359"/>
+      <c r="E19" s="359"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="359"/>
+      <c r="H19" s="359"/>
+      <c r="I19" s="359"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="372" t="s">
+      <c r="A20" s="375" t="s">
         <v>622</v>
       </c>
-      <c r="B20" s="358"/>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
-      <c r="H20" s="358"/>
-      <c r="I20" s="358"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
+      <c r="H20" s="359"/>
+      <c r="I20" s="359"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="372" t="s">
+      <c r="A21" s="375" t="s">
         <v>623</v>
       </c>
-      <c r="B21" s="358"/>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="358"/>
+      <c r="B21" s="359"/>
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="372" t="s">
+      <c r="A22" s="375" t="s">
         <v>624</v>
       </c>
-      <c r="B22" s="358"/>
-      <c r="C22" s="358"/>
-      <c r="D22" s="358"/>
-      <c r="E22" s="358"/>
-      <c r="F22" s="358"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="358"/>
-      <c r="I22" s="358"/>
+      <c r="B22" s="359"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="359"/>
+      <c r="F22" s="359"/>
+      <c r="G22" s="359"/>
+      <c r="H22" s="359"/>
+      <c r="I22" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
@@ -24981,11 +24986,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24996,7 +24996,7 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28222,7 +28222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -30456,6 +30456,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AIHW_PPR_ProjectCategoryLookup xmlns="47fdf4fe-dd3b-4954-99c1-831e300f054c">
@@ -30477,15 +30486,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AA73DE-713F-40A9-BDCE-8C4486E5267B}">
   <ds:schemaRefs>
@@ -30505,6 +30505,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0AE6EA-42F5-44FB-9658-6ECCE61760CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2795F9C1-AC78-4C14-BF71-24F7BB5F2EB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -30518,12 +30526,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0AE6EA-42F5-44FB-9658-6ECCE61760CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>